--- a/genshin/445532677201269042_2020-10-13_14-54-20.xlsx
+++ b/genshin/445532677201269042_2020-10-13_14-54-20.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-08 19:40:31</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44263.81980324074</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>4041444088</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-02-02 04:31:32</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44229.18856481482</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-02-02 04:31:09</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44229.18829861111</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>3903157624</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-01-03 00:38:55</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44199.02702546296</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -831,10 +839,8 @@
           <t>3687666717</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-12-19 13:56:32</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44184.58092592593</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -906,10 +912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:15:00</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44177.09375</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -985,10 +989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-29 21:13:50</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44164.88460648148</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1056,10 +1058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-27 07:59:16</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44162.33282407407</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1131,10 +1131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-24 11:04:49</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44159.46167824074</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1206,10 +1204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:35:56</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44146.56662037037</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1277,10 +1273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:58:42</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44143.62409722222</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1352,10 +1346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-08 11:52:16</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44143.49462962963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1419,10 +1411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:54:58</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44142.6631712963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1494,10 +1484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-06 20:30:04</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44141.85421296296</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1565,10 +1553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-05 19:34:14</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44140.81543981482</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1636,10 +1622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-04 09:46:07</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44139.40702546296</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1711,10 +1695,8 @@
           <t>3667813706</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-04 02:04:07</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44139.08619212963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1790,10 +1772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-04 01:03:12</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44139.04388888889</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1857,10 +1837,8 @@
           <t>3669829793</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-03 22:19:37</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44138.93028935185</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1928,10 +1906,8 @@
           <t>3667811458</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-03 17:22:32</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44138.72398148148</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1999,10 +1975,8 @@
           <t>3668480032</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-03 17:17:23</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44138.72040509259</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2070,10 +2044,8 @@
           <t>3668480032</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-03 15:03:47</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44138.62762731482</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2149,10 +2121,8 @@
           <t>3668030894</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-03 12:11:28</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44138.50796296296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2220,10 +2190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-03 11:16:39</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44138.46989583333</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2291,10 +2259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-03 11:14:59</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44138.46873842592</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2358,10 +2324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-03 10:46:56</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44138.44925925926</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2429,10 +2393,8 @@
           <t>3667818522</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-03 10:46:39</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44138.4490625</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2496,10 +2458,8 @@
           <t>3667813706</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-03 10:43:34</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44138.44692129629</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2563,10 +2523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-03 10:41:53</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44138.44575231482</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2630,10 +2588,8 @@
           <t>3667815048</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-03 10:41:36</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44138.44555555555</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2697,10 +2653,8 @@
           <t>3667811969</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-03 10:41:09</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44138.44524305555</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2764,10 +2718,8 @@
           <t>3667804497</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-03 10:40:49</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44138.44501157408</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2831,10 +2783,8 @@
           <t>3667811458</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-03 10:40:25</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44138.4447337963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2898,10 +2848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-03 10:24:42</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44138.43381944444</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2969,10 +2917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-03 08:31:04</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44138.35490740741</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3044,10 +2990,8 @@
           <t>3667177886</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-03 07:38:18</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44138.31826388889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3115,10 +3059,8 @@
           <t>3667495263</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-03 07:29:16</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44138.31199074074</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3194,10 +3136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-03 07:28:52</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44138.31171296296</v>
       </c>
       <c r="I39" t="n">
         <v>6</v>
@@ -3273,10 +3213,8 @@
           <t>3667199377</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-03 00:53:23</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44138.03707175926</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3352,10 +3290,8 @@
           <t>3667177886</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-03 00:44:46</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44138.03108796296</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3431,10 +3367,8 @@
           <t>3667148166</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-03 00:33:10</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44138.02303240741</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3498,10 +3432,8 @@
           <t>3667141031</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-03 00:28:08</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44138.01953703703</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3569,10 +3501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-02 22:57:56</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44137.95689814815</v>
       </c>
       <c r="I44" t="n">
         <v>5</v>
@@ -3636,10 +3566,8 @@
           <t>3641727143</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-10-31 01:25:55</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44135.05966435185</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3711,10 +3639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-10-30 03:07:36</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44134.13027777777</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3778,10 +3704,8 @@
           <t>3651421545</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-10-29 22:17:50</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44133.92905092592</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3841,10 +3765,8 @@
           <t>3651405834</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-10-29 22:13:37</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44133.92612268519</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3904,10 +3826,8 @@
           <t>3598898232</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-10-29 17:55:03</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44133.7465625</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3975,10 +3895,8 @@
           <t>3648948343</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-10-29 06:20:15</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44133.2640625</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4050,10 +3968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-10-28 18:31:22</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44132.77178240741</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4121,10 +4037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-10-28 14:29:25</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44132.60376157407</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4196,10 +4110,8 @@
           <t>3641727143</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-10-26 23:06:26</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44130.96280092592</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4271,10 +4183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-10-26 16:07:00</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44130.67152777778</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4342,10 +4252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-10-26 13:53:57</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44130.57913194445</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4413,10 +4321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-10-25 16:52:56</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44129.70342592592</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4488,10 +4394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-10-25 13:17:05</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44129.55353009259</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4563,10 +4467,8 @@
           <t>3634743608</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-10-25 00:47:58</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44129.03331018519</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4634,10 +4536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-10-25 00:25:55</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44129.01799768519</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4709,10 +4609,8 @@
           <t>3634502541</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-10-24 23:40:18</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44128.98631944445</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4780,10 +4678,8 @@
           <t>3634442799</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-10-24 23:26:32</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44128.97675925926</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4851,10 +4747,8 @@
           <t>3634434320</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-10-24 23:26:22</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44128.97664351852</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4922,10 +4816,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-10-24 23:24:01</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44128.97501157408</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4993,10 +4885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:57:29</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44128.95658564815</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5068,10 +4958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:53:44</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44128.74564814815</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5139,10 +5027,8 @@
           <t>3631533020</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-10-24 10:07:31</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44128.42188657408</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5215,10 +5101,8 @@
           <t>3630278566</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-10-23 22:19:54</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44127.93048611111</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5286,10 +5170,8 @@
           <t>3630272967</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-10-23 22:18:54</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44127.92979166667</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5357,10 +5239,8 @@
           <t>3630269513</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-10-23 22:18:17</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44127.92936342592</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5428,10 +5308,8 @@
           <t>3630263137</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-10-23 22:16:15</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44127.92795138889</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5499,10 +5377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-10-23 13:25:55</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44127.55966435185</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5570,10 +5446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-10-23 00:35:47</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44127.02484953704</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5641,10 +5515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-10-22 23:50:11</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44126.99318287037</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5712,10 +5584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-10-22 23:41:22</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44126.98706018519</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5779,10 +5649,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-10-22 19:39:49</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44126.81931712963</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5846,10 +5714,8 @@
           <t>3623389673</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-10-22 18:21:02</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44126.76460648148</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5917,10 +5783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-10-22 18:07:15</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44126.75503472222</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5992,10 +5856,8 @@
           <t>3625988214</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-10-22 18:01:36</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44126.75111111111</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6059,10 +5921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-10-22 17:59:30</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44126.74965277778</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6134,10 +5994,8 @@
           <t>3625934538</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-10-22 17:45:00</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44126.73958333334</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6205,10 +6063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-10-22 17:37:51</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44126.73461805555</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6272,10 +6128,8 @@
           <t>3623400241</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-10-22 16:52:49</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44126.70334490741</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6343,10 +6197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-10-22 16:33:42</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44126.69006944444</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6414,10 +6266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-10-22 16:21:35</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44126.68165509259</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6493,10 +6343,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-10-22 16:02:09</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44126.66815972222</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6572,10 +6420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-10-22 15:21:53</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44126.64019675926</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6639,10 +6485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-10-22 15:11:20</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44126.63287037037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6714,10 +6558,8 @@
           <t>3623389673</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-10-22 15:05:39</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44126.62892361111</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6789,10 +6631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-10-22 15:01:49</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44126.62626157407</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6860,10 +6700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-10-22 14:59:32</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44126.62467592592</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6931,10 +6769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-10-22 14:58:54</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44126.62423611111</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7002,10 +6838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-10-22 14:41:16</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44126.61199074074</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7073,10 +6907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-10-22 14:38:34</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44126.61011574074</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7148,10 +6980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-10-22 14:28:37</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44126.60320601852</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7219,10 +7049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-10-22 11:59:54</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44126.49993055555</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7301,10 +7129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-10-21 23:01:01</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44125.95903935185</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7364,10 +7190,8 @@
           <t>3623389673</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-10-21 21:51:45</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44125.9109375</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7431,10 +7255,8 @@
           <t>3623400241</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-10-21 20:59:56</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44125.8749537037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7502,10 +7324,8 @@
           <t>3623389673</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-10-21 20:59:29</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44125.87464120371</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7573,10 +7393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-10-21 00:00:35</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44125.00040509259</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7640,10 +7458,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:07:16</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44124.79671296296</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7715,10 +7531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-10-20 15:25:24</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44124.64263888889</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7786,10 +7600,8 @@
           <t>3596250775</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-10-20 12:31:27</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44124.52184027778</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7861,10 +7673,8 @@
           <t>3596250775</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-10-20 12:27:22</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44124.51900462963</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -7940,10 +7750,8 @@
           <t>3596250775</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-10-20 12:26:09</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44124.51815972223</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8015,10 +7823,8 @@
           <t>3596250775</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-10-20 12:23:17</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44124.51616898148</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8094,10 +7900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:48:21</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44123.82524305556</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8157,10 +7961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:13:56</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44123.75967592592</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8236,10 +8038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:12:07</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44123.63341435185</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8303,10 +8103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-10-18 18:15:13</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44122.76056712963</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8374,10 +8172,8 @@
           <t>3611986404</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-10-18 11:35:12</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44122.48277777778</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8445,10 +8241,8 @@
           <t>3611906962</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-10-18 11:13:24</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44122.46763888889</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8516,10 +8310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-10-18 10:08:55</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44122.42285879629</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8591,10 +8383,8 @@
           <t>3609932635</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-10-17 20:47:38</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44121.86641203704</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8670,10 +8460,8 @@
           <t>3609936834</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-10-17 20:47:07</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44121.86605324074</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8750,10 +8538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-10-17 16:15:15</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44121.67725694444</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8821,10 +8607,8 @@
           <t>3608130407</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-10-17 13:04:24</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44121.54472222222</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8896,10 +8680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-10-17 12:53:54</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44121.53743055555</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8968,10 +8750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-10-17 12:39:13</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44121.5272337963</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9039,10 +8819,8 @@
           <t>3608130407</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-10-17 12:04:10</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44121.50289351852</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9114,10 +8892,8 @@
           <t>3595699889</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-10-17 10:18:20</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44121.42939814815</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9185,10 +8961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-10-17 02:58:12</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44121.12375</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9260,10 +9034,8 @@
           <t>3606666158</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-10-16 22:51:12</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44120.95222222222</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9323,10 +9095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-10-16 19:51:50</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44120.82766203704</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9394,10 +9164,8 @@
           <t>3598405094</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-10-16 19:22:55</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44120.80758101852</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9461,10 +9229,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-10-16 17:57:27</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44120.74822916667</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9532,10 +9298,8 @@
           <t>3595667309</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-10-16 17:55:45</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44120.74704861111</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9611,10 +9375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-10-16 17:10:33</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44120.71565972222</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9682,10 +9444,8 @@
           <t>3598004821</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-10-16 16:48:20</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44120.70023148148</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9753,10 +9513,8 @@
           <t>3598405094</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-10-16 15:17:28</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44120.63712962963</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9824,10 +9582,8 @@
           <t>3604851476</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-10-16 13:19:12</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44120.555</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9900,10 +9656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-10-16 12:10:14</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44120.50710648148</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9967,10 +9721,8 @@
           <t>3603912972</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-10-16 01:50:28</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44120.07671296296</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10034,10 +9786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-10-16 00:20:07</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44120.01396990741</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10101,10 +9851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-10-15 22:29:21</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44119.93704861111</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10183,10 +9931,8 @@
           <t>3602810135</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-10-15 20:09:59</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44119.8402662037</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10258,10 +10004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-10-15 19:58:55</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44119.83258101852</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10325,10 +10069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-10-15 19:56:25</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44119.83084490741</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10404,10 +10146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-10-15 15:27:36</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44119.64416666667</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10471,10 +10211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-10-15 12:34:59</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44119.52429398148</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10546,10 +10284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-10-15 11:39:32</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44119.48578703704</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10617,10 +10353,8 @@
           <t>3595666516</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-10-15 10:27:19</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44119.43563657408</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10684,10 +10418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-10-15 08:56:12</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44119.37236111111</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10751,10 +10483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-10-15 08:25:45</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44119.35121527778</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10818,10 +10548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-10-15 01:37:12</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44119.0675</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10885,10 +10613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-10-15 00:43:47</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44119.03040509259</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10964,10 +10690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-10-15 00:28:55</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44119.02008101852</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11032,10 +10756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-10-15 00:00:08</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44119.00009259259</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11111,10 +10833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-10-14 23:45:23</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44118.98984953704</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11178,10 +10898,8 @@
           <t>3598898232</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-10-14 23:16:27</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44118.96975694445</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11253,10 +10971,8 @@
           <t>3595824892</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-10-14 23:09:44</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44118.9650925926</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11332,10 +11048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-10-14 22:50:33</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44118.95177083334</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11407,10 +11121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-10-14 22:09:58</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44118.92358796296</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11483,10 +11195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-10-14 22:08:03</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44118.92225694445</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11546,10 +11256,8 @@
           <t>3598405094</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-10-14 21:34:35</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44118.8990162037</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11613,10 +11321,8 @@
           <t>3595726079</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-10-14 21:15:01</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44118.88542824074</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11680,10 +11386,8 @@
           <t>3598898232</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-10-14 19:48:58</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44118.8256712963</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11751,10 +11455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-10-14 19:25:49</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44118.8095949074</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11822,10 +11524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-10-14 18:19:33</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44118.76357638889</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11893,10 +11593,8 @@
           <t>3599150988</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-10-14 17:14:34</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44118.71844907408</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11960,10 +11658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-10-14 15:38:11</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44118.6515162037</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12027,10 +11723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-10-14 15:30:56</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44118.64648148148</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12098,10 +11792,8 @@
           <t>3598405094</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-10-14 15:30:19</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44118.64605324074</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12169,10 +11861,8 @@
           <t>3598898625</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-10-14 15:28:08</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44118.64453703703</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12244,10 +11934,8 @@
           <t>3598898232</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-10-14 15:27:36</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44118.64416666667</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12319,10 +12007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-10-14 15:00:22</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44118.62525462963</v>
       </c>
       <c r="I166" t="n">
         <v>2</v>
@@ -12390,10 +12076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-10-14 14:53:03</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44118.62017361111</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12465,10 +12149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-10-14 13:58:46</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44118.58247685185</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12540,10 +12222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-10-14 12:41:11</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44118.52859953704</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12607,10 +12287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-10-14 12:40:38</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44118.52821759259</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12678,10 +12356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-10-14 12:39:55</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44118.5277199074</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12749,10 +12425,8 @@
           <t>3598432014</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-10-14 12:24:05</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44118.51672453704</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12825,10 +12499,8 @@
           <t>3595835796</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-10-14 12:21:52</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44118.51518518518</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12901,10 +12573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-10-14 12:19:10</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44118.51331018518</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12968,10 +12638,8 @@
           <t>3598405094</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-10-14 12:15:21</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44118.51065972223</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13035,10 +12703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-10-14 12:15:11</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44118.51054398148</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13102,10 +12768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-10-14 11:14:39</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44118.46850694445</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13173,10 +12837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-10-14 10:57:00</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44118.45625</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13244,10 +12906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-10-14 10:51:33</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44118.45246527778</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13315,10 +12975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-10-14 10:39:52</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44118.44435185185</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13390,10 +13048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-10-14 10:00:13</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44118.41681712963</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13461,10 +13117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-10-14 09:54:34</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44118.41289351852</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13528,10 +13182,8 @@
           <t>3598004821</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-10-14 09:21:41</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44118.39005787037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13607,10 +13259,8 @@
           <t>3597662440</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-10-14 09:18:33</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44118.38788194444</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13686,10 +13336,8 @@
           <t>3595681896</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-10-14 08:16:00</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44118.34444444445</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13761,10 +13409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-10-14 08:11:42</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44118.34145833334</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13836,10 +13482,8 @@
           <t>3597870135</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-10-14 07:55:30</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44118.33020833333</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -13903,10 +13547,8 @@
           <t>3597668333</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-10-14 02:38:58</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44118.11039351852</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -13978,10 +13620,8 @@
           <t>3597662440</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-10-14 02:27:40</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44118.10254629629</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14053,10 +13693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-10-14 02:25:08</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44118.10078703704</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14124,10 +13762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-10-14 01:42:27</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44118.07114583333</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14199,10 +13835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-10-14 01:09:57</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44118.04857638889</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14270,10 +13904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-10-14 01:08:09</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44118.04732638889</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14349,10 +13981,8 @@
           <t>3597512141</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-10-14 00:45:38</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44118.03168981482</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14424,10 +14054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-10-14 00:39:10</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44118.02719907407</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14499,10 +14127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-10-14 00:14:03</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44118.00975694445</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14578,10 +14204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-10-14 00:09:26</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44118.00655092593</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14657,10 +14281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-10-13 23:44:25</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44117.98917824074</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14724,10 +14346,8 @@
           <t>3597330366</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-10-13 23:43:12</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44117.98833333333</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14804,10 +14424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-10-13 23:19:35</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44117.97193287037</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14875,10 +14493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-10-13 23:05:06</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44117.961875</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14954,10 +14570,8 @@
           <t>3595681896</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-10-13 23:04:45</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44117.96163194445</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15025,10 +14639,8 @@
           <t>3595681896</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-10-13 23:03:50</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44117.96099537037</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15096,10 +14708,8 @@
           <t>3597136452</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-10-13 22:53:44</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44117.95398148148</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15175,10 +14785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-10-13 22:51:58</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44117.95275462963</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15246,10 +14854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-10-13 22:50:49</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44117.95195601852</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15321,10 +14927,8 @@
           <t>3597110140</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-10-13 22:46:38</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44117.94905092593</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15396,10 +15000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-10-13 22:41:42</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44117.945625</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15463,10 +15065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-10-13 22:04:43</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44117.91994212963</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15534,10 +15134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-10-13 22:03:28</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44117.91907407407</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15601,10 +15199,8 @@
           <t>3596935137</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-10-13 22:01:45</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44117.91788194444</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15668,10 +15264,8 @@
           <t>3596252225</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:58:36</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44117.91569444445</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15739,10 +15333,8 @@
           <t>3596252225</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:52:53</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44117.91172453704</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15814,10 +15406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:47:13</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44117.90778935186</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15885,10 +15475,8 @@
           <t>3596875916</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:46:31</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44117.90730324074</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15956,10 +15544,8 @@
           <t>3596870633</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:46:11</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44117.90707175926</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16023,10 +15609,8 @@
           <t>3596854942</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:44:44</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44117.90606481482</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16094,10 +15678,8 @@
           <t>3596863351</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:44:29</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44117.90589120371</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16165,10 +15747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:44:28</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44117.90587962963</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16228,10 +15808,8 @@
           <t>3596862998</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:44:13</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44117.90570601852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16299,10 +15877,8 @@
           <t>3596860306</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:42:00</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44117.90416666667</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16372,10 +15948,8 @@
           <t>3596844373</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:41:03</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44117.90350694444</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16443,10 +16017,8 @@
           <t>3596840023</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:37:30</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44117.90104166666</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16518,10 +16090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:33:55</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44117.89855324074</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16585,10 +16155,8 @@
           <t>3596816678</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:30:51</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44117.89642361111</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16656,10 +16224,8 @@
           <t>3596815914</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:30:16</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44117.89601851852</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16727,10 +16293,8 @@
           <t>3596804944</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:29:28</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44117.89546296297</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16798,10 +16362,8 @@
           <t>3596252225</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:25:38</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44117.89280092593</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -16869,10 +16431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:23:19</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44117.89119212963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16940,10 +16500,8 @@
           <t>3596763978</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:19:08</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44117.88828703704</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17015,10 +16573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:17:28</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44117.88712962963</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17093,10 +16649,8 @@
           <t>3596760795</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:16:23</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44117.88637731481</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17164,10 +16718,8 @@
           <t>3596756802</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:13:59</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44117.88471064815</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17236,10 +16788,8 @@
           <t>3595794299</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:04:35</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44117.87818287037</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17307,10 +16857,8 @@
           <t>3596716152</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-10-13 21:03:51</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44117.87767361111</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17386,10 +16934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:58:52</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44117.87421296296</v>
       </c>
       <c r="I236" t="n">
         <v>3</v>
@@ -17465,10 +17011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:54:13</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44117.8709837963</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17540,10 +17084,8 @@
           <t>3596054513</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:50:12</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44117.86819444445</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17619,10 +17161,8 @@
           <t>3596646497</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:43:23</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44117.86346064815</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17698,10 +17238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:42:15</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44117.86267361111</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17777,10 +17315,8 @@
           <t>3595666516</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:38:59</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44117.86040509259</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17852,10 +17388,8 @@
           <t>3595794299</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:38:33</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44117.86010416667</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17927,10 +17461,8 @@
           <t>3596626092</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:37:42</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44117.85951388889</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18006,10 +17538,8 @@
           <t>3596054513</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:37:33</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44117.85940972222</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18073,10 +17603,8 @@
           <t>3596602700</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:31:02</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44117.85488425926</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18152,10 +17680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:23:14</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44117.84946759259</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18219,10 +17745,8 @@
           <t>3595870002</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:21:25</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44117.84820601852</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18286,10 +17810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:21:00</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44117.84791666667</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18361,10 +17883,8 @@
           <t>3596054513</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:20:57</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44117.84788194444</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18440,10 +17960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-10-13 20:07:38</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44117.83863425926</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18511,10 +18029,8 @@
           <t>3595794299</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:56:27</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44117.83086805556</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18578,10 +18094,8 @@
           <t>3596461724</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:51:33</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44117.82746527778</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18657,10 +18171,8 @@
           <t>3595794299</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:49:52</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44117.8262962963</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18732,10 +18244,8 @@
           <t>3596461724</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:49:07</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44117.82577546296</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18804,10 +18314,8 @@
           <t>3596252225</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:46:27</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44117.82392361111</v>
       </c>
       <c r="I255" t="n">
         <v>2</v>
@@ -18879,10 +18387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:36:53</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44117.81728009259</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18942,10 +18448,8 @@
           <t>3595666626</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:36:52</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44117.81726851852</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19013,10 +18517,8 @@
           <t>3596203528</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:33:31</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44117.81494212963</v>
       </c>
       <c r="I258" t="n">
         <v>2</v>
@@ -19092,10 +18594,8 @@
           <t>3596412402</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:33:11</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44117.81471064815</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19167,10 +18667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:32:38</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44117.8143287037</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19246,10 +18744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:27:09</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44117.81052083334</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19321,10 +18817,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:26:35</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44117.81012731481</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19392,10 +18886,8 @@
           <t>3596384265</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:26:01</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44117.8097337963</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19471,10 +18963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:25:41</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44117.80950231481</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19545,10 +19035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:23:11</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44117.8077662037</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19612,10 +19100,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:22:20</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44117.80717592593</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19687,10 +19173,8 @@
           <t>3596367299</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:19:48</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44117.80541666667</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19754,10 +19238,8 @@
           <t>3596203528</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:16:46</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44117.80331018518</v>
       </c>
       <c r="I268" t="n">
         <v>3</v>
@@ -19825,10 +19307,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:16:20</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44117.80300925926</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19904,10 +19384,8 @@
           <t>3596342216</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:13:31</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44117.80105324074</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19979,10 +19457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:13:04</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44117.80074074074</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20054,10 +19530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:06:19</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44117.79605324074</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20133,10 +19607,8 @@
           <t>3596252225</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:04:36</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44117.79486111111</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20208,10 +19680,8 @@
           <t>3596303499</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-10-13 19:02:20</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44117.79328703704</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20275,10 +19745,8 @@
           <t>3596294275</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:59:43</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44117.79146990741</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20350,10 +19818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:59:19</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44117.79119212963</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20417,10 +19883,8 @@
           <t>3596263489</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:59:04</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44117.79101851852</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20488,10 +19952,8 @@
           <t>3596263489</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:56:55</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44117.78952546296</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20563,10 +20025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:56:00</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44117.78888888889</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20630,10 +20090,8 @@
           <t>3596263489</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:54:59</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44117.78818287037</v>
       </c>
       <c r="I280" t="n">
         <v>2</v>
@@ -20701,10 +20159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:54:39</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44117.78795138889</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20772,10 +20228,8 @@
           <t>3596263489</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:54:20</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44117.78773148148</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20843,10 +20297,8 @@
           <t>3596263489</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:53:47</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44117.78734953704</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -20918,10 +20370,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:52:24</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44117.78638888889</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20989,10 +20439,8 @@
           <t>3596263489</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:51:45</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44117.7859375</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21060,10 +20508,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:51:36</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44117.78583333334</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21140,10 +20586,8 @@
           <t>3596263489</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:50:24</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44117.785</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21215,10 +20659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:49:51</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44117.78461805556</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21294,10 +20736,8 @@
           <t>3595835796</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:49:16</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44117.78421296296</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21361,10 +20801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:49:15</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44117.78420138889</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21428,10 +20866,8 @@
           <t>3596252225</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:47:28</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44117.78296296296</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21503,10 +20939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:46:31</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44117.78230324074</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21578,10 +21012,8 @@
           <t>3596250775</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:46:10</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44117.78206018519</v>
       </c>
       <c r="I293" t="n">
         <v>8</v>
@@ -21653,10 +21085,8 @@
           <t>3596246147</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:44:02</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44117.78057870371</v>
       </c>
       <c r="I294" t="n">
         <v>4</v>
@@ -21728,10 +21158,8 @@
           <t>3596236984</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:42:53</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44117.77978009259</v>
       </c>
       <c r="I295" t="n">
         <v>7</v>
@@ -21803,10 +21231,8 @@
           <t>3596234001</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:42:13</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44117.77931712963</v>
       </c>
       <c r="I296" t="n">
         <v>12</v>
@@ -21878,10 +21304,8 @@
           <t>3596222876</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:39:17</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44117.7772800926</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21949,10 +21373,8 @@
           <t>3595824892</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:34:29</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44117.77394675926</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22020,10 +21442,8 @@
           <t>3596203528</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:33:13</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44117.77306712963</v>
       </c>
       <c r="I299" t="n">
         <v>10</v>
@@ -22100,10 +21520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:33:05</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44117.77297453704</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22167,10 +21585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:31:19</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44117.77174768518</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22238,10 +21654,8 @@
           <t>3596192955</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:30:50</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44117.77141203704</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22313,10 +21727,8 @@
           <t>3596177219</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:29:51</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44117.77072916667</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22388,10 +21800,8 @@
           <t>3596177219</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:29:08</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44117.77023148148</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22463,10 +21873,8 @@
           <t>3596195124</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:29:01</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44117.77015046297</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22542,10 +21950,8 @@
           <t>3596141927</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:27:41</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44117.76922453703</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22617,10 +22023,8 @@
           <t>3596183098</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:27:09</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44117.76885416666</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22692,10 +22096,8 @@
           <t>3596177219</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:25:48</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44117.76791666666</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22767,10 +22169,8 @@
           <t>3596180716</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:25:22</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44117.76761574074</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22842,10 +22242,8 @@
           <t>3596180716</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:25:03</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44117.76739583333</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22917,10 +22315,8 @@
           <t>3595699889</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:21:13</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44117.7647337963</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22984,10 +22380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:17:59</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44117.76248842593</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23059,10 +22453,8 @@
           <t>3596129742</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:16:58</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44117.7617824074</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23122,10 +22514,8 @@
           <t>3596129742</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:15:57</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44117.76107638889</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23197,10 +22587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:14:42</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44117.76020833333</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23272,10 +22660,8 @@
           <t>3596137354</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:14:11</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44117.75984953704</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23351,10 +22737,8 @@
           <t>3595803263</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:13:59</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44117.75971064815</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23426,10 +22810,8 @@
           <t>3596141927</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:13:58</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44117.75969907407</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23489,10 +22871,8 @@
           <t>3596137354</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:13:01</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44117.75903935185</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23552,10 +22932,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:12:37</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44117.75876157408</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23631,10 +23009,8 @@
           <t>3596129742</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:11:56</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44117.75828703704</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23694,10 +23070,8 @@
           <t>3596128785</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:11:07</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44117.75771990741</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23757,10 +23131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:10:39</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44117.75739583333</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23824,10 +23196,8 @@
           <t>3596127734</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:10:12</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44117.75708333333</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23887,10 +23257,8 @@
           <t>3596123595</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:09:39</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44117.75670138889</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23951,10 +23319,8 @@
           <t>3595835796</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:08:38</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44117.75599537037</v>
       </c>
       <c r="I326" t="n">
         <v>10</v>
@@ -24018,10 +23384,8 @@
           <t>3595699889</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:07:09</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44117.75496527777</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24089,10 +23453,8 @@
           <t>3595835796</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:06:45</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44117.7546875</v>
       </c>
       <c r="I328" t="n">
         <v>3</v>
@@ -24156,10 +23518,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:05:56</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44117.75412037037</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24227,10 +23587,8 @@
           <t>3595699889</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:05:04</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44117.75351851852</v>
       </c>
       <c r="I330" t="n">
         <v>3</v>
@@ -24302,10 +23660,8 @@
           <t>3596105499</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:02:09</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44117.75149305556</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24381,10 +23737,8 @@
           <t>3595835796</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:01:38</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44117.75113425926</v>
       </c>
       <c r="I332" t="n">
         <v>2</v>
@@ -24452,10 +23806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-10-13 18:01:33</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44117.75107638889</v>
       </c>
       <c r="I333" t="n">
         <v>88</v>
@@ -24531,10 +23883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:56:46</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44117.74775462963</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -24610,10 +23960,8 @@
           <t>3596071171</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:52:19</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44117.74466435185</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24691,10 +24039,8 @@
           <t>3596054513</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:47:50</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44117.74155092592</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24758,10 +24104,8 @@
           <t>3595781530</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:46:40</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44117.74074074074</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24837,10 +24181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:45:28</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44117.73990740741</v>
       </c>
       <c r="I338" t="n">
         <v>3</v>
@@ -24912,10 +24254,8 @@
           <t>3596043463</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:44:27</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44117.73920138889</v>
       </c>
       <c r="I339" t="n">
         <v>4</v>
@@ -24983,10 +24323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:41:01</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44117.73681712963</v>
       </c>
       <c r="I340" t="n">
         <v>2</v>
@@ -25058,10 +24396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:40:56</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44117.73675925926</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25137,10 +24473,8 @@
           <t>3596034220</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:40:33</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44117.73649305556</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25212,10 +24546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:40:15</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44117.73628472222</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25279,10 +24611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:38:56</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44117.73537037037</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25350,10 +24680,8 @@
           <t>3595670607</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:35:54</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44117.73326388889</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25429,10 +24757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:31:28</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44117.73018518519</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25504,10 +24830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:29:32</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44117.72884259259</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25579,10 +24903,8 @@
           <t>3596006606</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:29:08</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44117.72856481482</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25650,10 +24972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:18:09</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44117.7209375</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25721,10 +25041,8 @@
           <t>3595834129</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:17:57</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44117.72079861111</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -25800,10 +25118,8 @@
           <t>3595976527</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:17:35</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44117.72054398148</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25871,10 +25187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:16:28</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44117.71976851852</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25947,10 +25261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:16:08</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44117.71953703704</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26014,10 +25326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:15:32</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44117.71912037037</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26093,10 +25403,8 @@
           <t>3595970725</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:14:14</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44117.71821759259</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26168,10 +25476,8 @@
           <t>3595834129</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:13:45</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44117.71788194445</v>
       </c>
       <c r="I356" t="n">
         <v>3</v>
@@ -26247,10 +25553,8 @@
           <t>3595803263</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:11:57</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44117.71663194444</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26326,10 +25630,8 @@
           <t>3595693369</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:11:01</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44117.7159837963</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26397,10 +25699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:09:16</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44117.71476851852</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26464,10 +25764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:07:57</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44117.71385416666</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26535,10 +25833,8 @@
           <t>3595803263</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:06:06</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44117.71256944445</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26610,10 +25906,8 @@
           <t>3595943034</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:04:59</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44117.71179398148</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26689,10 +25983,8 @@
           <t>3595803263</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:02:56</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44117.71037037037</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26764,10 +26056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:02:28</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44117.7100462963</v>
       </c>
       <c r="I364" t="n">
         <v>3</v>
@@ -26835,10 +26125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-10-13 17:01:14</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44117.70918981481</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -26902,10 +26190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:59:23</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44117.70790509259</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -26982,10 +26268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:57:54</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44117.706875</v>
       </c>
       <c r="I367" t="n">
         <v>40</v>
@@ -27049,10 +26333,8 @@
           <t>3595927084</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:57:40</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44117.70671296296</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27120,10 +26402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:54:02</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44117.70418981482</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27195,10 +26475,8 @@
           <t>3595913711</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:53:25</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44117.70376157408</v>
       </c>
       <c r="I370" t="n">
         <v>2</v>
@@ -27266,10 +26544,8 @@
           <t>3595848928</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:51:34</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44117.70247685185</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27341,10 +26617,8 @@
           <t>3595824892</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:50:15</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44117.7015625</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27408,10 +26682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:47:37</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44117.6997337963</v>
       </c>
       <c r="I373" t="n">
         <v>3</v>
@@ -27488,10 +26760,8 @@
           <t>3595824892</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:46:08</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44117.6987037037</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27559,10 +26829,8 @@
           <t>3595848928</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:45:47</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44117.69846064815</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27622,10 +26890,8 @@
           <t>3595824892</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:45:11</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44117.69804398148</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27693,10 +26959,8 @@
           <t>3595824892</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:44:07</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44117.69730324074</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -27764,10 +27028,8 @@
           <t>3595889270</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:43:57</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44117.6971875</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27835,10 +27097,8 @@
           <t>3595824892</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:43:43</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44117.69702546296</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27906,10 +27166,8 @@
           <t>3595803263</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:43:10</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44117.69664351852</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27981,10 +27239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:42:54</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44117.69645833333</v>
       </c>
       <c r="I381" t="n">
         <v>3</v>
@@ -28056,10 +27312,8 @@
           <t>3595890322</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:42:23</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44117.69609953704</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28127,10 +27381,8 @@
           <t>3595667309</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:41:27</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44117.69545138889</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28198,10 +27450,8 @@
           <t>3595879253</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:40:54</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44117.69506944445</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28269,10 +27519,8 @@
           <t>3595884056</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:40:44</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44117.69495370371</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28344,10 +27592,8 @@
           <t>3595883234</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:39:38</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44117.69418981481</v>
       </c>
       <c r="I386" t="n">
         <v>5</v>
@@ -28411,10 +27657,8 @@
           <t>3595803263</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:39:22</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44117.69400462963</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28490,10 +27734,8 @@
           <t>3595877393</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:38:26</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44117.69335648148</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28569,10 +27811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:37:17</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44117.69255787037</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28644,10 +27884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:36:33</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44117.69204861111</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28722,10 +27960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:35:13</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44117.69112268519</v>
       </c>
       <c r="I391" t="n">
         <v>23</v>
@@ -28789,10 +28025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:32:29</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44117.68922453704</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28868,10 +28102,8 @@
           <t>3595870002</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:31:26</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44117.68849537037</v>
       </c>
       <c r="I393" t="n">
         <v>4</v>
@@ -28939,10 +28171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:30:18</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44117.68770833333</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29010,10 +28240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:30:12</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44117.68763888889</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29081,10 +28309,8 @@
           <t>3595848928</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:27:07</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44117.68549768518</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29156,10 +28382,8 @@
           <t>3595855097</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:24:18</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44117.68354166667</v>
       </c>
       <c r="I397" t="n">
         <v>3</v>
@@ -29227,10 +28451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:24:08</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44117.68342592593</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29307,10 +28529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:24:05</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44117.6833912037</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29382,10 +28602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:23:42</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44117.683125</v>
       </c>
       <c r="I400" t="n">
         <v>2</v>
@@ -29453,10 +28671,8 @@
           <t>3595824892</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:22:30</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44117.68229166666</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29524,10 +28740,8 @@
           <t>3595670607</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:21:12</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44117.68138888889</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29595,10 +28809,8 @@
           <t>3595834129</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:20:35</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44117.68096064815</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29662,10 +28874,8 @@
           <t>3595666626</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:20:14</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44117.68071759259</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -29733,10 +28943,8 @@
           <t>3595824892</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:16:32</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44117.67814814814</v>
       </c>
       <c r="I405" t="n">
         <v>2</v>
@@ -29804,10 +29012,8 @@
           <t>3595835796</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:16:14</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44117.67793981481</v>
       </c>
       <c r="I406" t="n">
         <v>9</v>
@@ -29871,10 +29077,8 @@
           <t>3595824892</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:16:11</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44117.67790509259</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29942,10 +29146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:15:03</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44117.67711805556</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30005,10 +29207,8 @@
           <t>3595824892</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:15:01</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44117.67709490741</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30076,10 +29276,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:14:29</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44117.67672453704</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30147,10 +29345,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:13:33</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44117.67607638889</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30218,10 +29414,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:13:07</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44117.67577546297</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30298,10 +29492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:12:49</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44117.67556712963</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30373,10 +29565,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:10:24</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44117.67388888889</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30444,10 +29634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:10:19</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44117.67383101852</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30519,10 +29707,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:09:49</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44117.67348379629</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30590,10 +29776,8 @@
           <t>3595821256</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:09:44</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44117.67342592592</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30666,10 +29850,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:08:21</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44117.67246527778</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -30737,10 +29919,8 @@
           <t>3595815112</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:07:50</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44117.67210648148</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30808,10 +29988,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:07:38</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44117.67196759259</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -30887,10 +30065,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:07:31</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44117.67188657408</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30958,10 +30134,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:06:48</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44117.67138888889</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31029,10 +30203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:06:34</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44117.67122685185</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31100,10 +30272,8 @@
           <t>3595803263</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:06:23</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44117.67109953704</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31171,10 +30341,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:05:23</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44117.67040509259</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31242,10 +30410,8 @@
           <t>3595803263</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:05:09</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44117.67024305555</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31317,10 +30483,8 @@
           <t>3595811305</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:05:08</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44117.67023148148</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31388,10 +30552,8 @@
           <t>3595667309</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:04:51</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44117.67003472222</v>
       </c>
       <c r="I428" t="n">
         <v>7</v>
@@ -31467,10 +30629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:04:48</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44117.67</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31538,10 +30698,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:04:26</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44117.66974537037</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31609,10 +30767,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:03:30</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44117.66909722222</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31680,10 +30836,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:03:15</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44117.66892361111</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31751,10 +30905,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:03:06</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44117.66881944444</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31822,10 +30974,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:03:05</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44117.66880787037</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31901,10 +31051,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:02:31</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44117.66841435185</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -31980,10 +31128,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:01:46</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44117.66789351852</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32051,10 +31197,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:01:38</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44117.66780092593</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32130,10 +31274,8 @@
           <t>3595800736</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:01:38</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44117.66780092593</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32209,10 +31351,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:01:29</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44117.66769675926</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32280,10 +31420,8 @@
           <t>3595670607</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-10-13 16:00:03</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44117.66670138889</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32351,10 +31489,8 @@
           <t>3595794299</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:59:57</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44117.66663194444</v>
       </c>
       <c r="I441" t="n">
         <v>22</v>
@@ -32422,10 +31558,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:59:46</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44117.66650462963</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32509,10 +31643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:59:11</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44117.66609953704</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32584,10 +31716,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:59:04</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44117.66601851852</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32663,10 +31793,8 @@
           <t>3595788849</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:59:01</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44117.66598379629</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32738,10 +31866,8 @@
           <t>3595781530</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:58:48</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44117.66583333333</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32809,10 +31935,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:57:55</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44117.66521990741</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32880,10 +32004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:56:51</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44117.66447916667</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32951,10 +32073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:54:12</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44117.66263888889</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33022,10 +32142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:54:11</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44117.66262731481</v>
       </c>
       <c r="I450" t="n">
         <v>22</v>
@@ -33089,10 +32207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:54:07</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44117.66258101852</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33156,10 +32272,8 @@
           <t>3595773553</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:51:53</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44117.66103009259</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33223,10 +32337,8 @@
           <t>3595781530</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:50:57</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44117.66038194444</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33302,10 +32414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:50:14</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44117.65988425926</v>
       </c>
       <c r="I454" t="n">
         <v>8</v>
@@ -33369,10 +32479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:50:07</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44117.65980324074</v>
       </c>
       <c r="I455" t="n">
         <v>7</v>
@@ -33440,10 +32548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:50:02</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44117.65974537037</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33507,10 +32613,8 @@
           <t>3595777276</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:50:01</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44117.6597337963</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33586,10 +32690,8 @@
           <t>3595776991</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:49:36</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44117.65944444444</v>
       </c>
       <c r="I458" t="n">
         <v>1</v>
@@ -33653,10 +32755,8 @@
           <t>3595753992</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:49:35</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44117.65943287037</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33732,10 +32832,8 @@
           <t>3595776942</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:49:32</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44117.65939814815</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33803,10 +32901,8 @@
           <t>3595776326</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:48:40</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44117.65879629629</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33878,10 +32974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:48:27</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44117.65864583333</v>
       </c>
       <c r="I462" t="n">
         <v>7</v>
@@ -33945,10 +33039,8 @@
           <t>3595770574</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:47:30</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44117.65798611111</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34012,10 +33104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:47:28</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44117.65796296296</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34075,10 +33165,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:47:10</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44117.65775462963</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34146,10 +33234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:47:08</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44117.65773148148</v>
       </c>
       <c r="I466" t="n">
         <v>2</v>
@@ -34218,10 +33304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:44:36</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44117.65597222222</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34293,10 +33377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:44:33</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44117.6559375</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34368,10 +33450,8 @@
           <t>3595670607</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:44:21</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44117.65579861111</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34443,10 +33523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:44:16</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44117.65574074074</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34514,10 +33592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:43:55</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44117.65549768518</v>
       </c>
       <c r="I471" t="n">
         <v>2</v>
@@ -34581,10 +33657,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:43:45</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44117.65538194445</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34648,10 +33722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:42:51</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44117.65475694444</v>
       </c>
       <c r="I473" t="n">
         <v>61</v>
@@ -34719,10 +33791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:42:50</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44117.65474537037</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34790,10 +33860,8 @@
           <t>3595753992</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:40:05</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44117.65283564815</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34857,10 +33925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:39:28</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44117.6524074074</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -34928,10 +33994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:37:16</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44117.65087962963</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35007,10 +34071,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:37:06</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44117.65076388889</v>
       </c>
       <c r="I478" t="n">
         <v>3</v>
@@ -35074,10 +34136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:37:03</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44117.65072916666</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35153,10 +34213,8 @@
           <t>3595747008</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:35:41</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44117.64978009259</v>
       </c>
       <c r="I480" t="n">
         <v>2</v>
@@ -35216,10 +34274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:35:29</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44117.6496412037</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35283,10 +34339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:33:53</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44117.64853009259</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35362,10 +34416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:33:17</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44117.64811342592</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35437,10 +34489,8 @@
           <t>3595670607</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:31:56</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44117.64717592593</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -35508,10 +34558,8 @@
           <t>3595666626</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:31:23</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44117.64679398148</v>
       </c>
       <c r="I485" t="n">
         <v>3</v>
@@ -35583,10 +34631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:31:11</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44117.64665509259</v>
       </c>
       <c r="I486" t="n">
         <v>2</v>
@@ -35658,10 +34704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:31:01</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44117.64653935185</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35729,10 +34773,8 @@
           <t>3595690772</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:27:02</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44117.64377314815</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35792,10 +34834,8 @@
           <t>3595726079</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:26:21</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44117.64329861111</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -35868,10 +34908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:26:20</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44117.64328703703</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -35947,10 +34985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:25:29</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44117.64269675926</v>
       </c>
       <c r="I491" t="n">
         <v>1</v>
@@ -36018,10 +35054,8 @@
           <t>3595709294</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:24:24</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44117.64194444445</v>
       </c>
       <c r="I492" t="n">
         <v>3</v>
@@ -36090,10 +35124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:24:17</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44117.64186342592</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36161,10 +35193,8 @@
           <t>3595666626</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:23:03</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44117.64100694445</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36232,10 +35262,8 @@
           <t>3595666626</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:22:49</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44117.64084490741</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36303,10 +35331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:22:43</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44117.64077546296</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36374,10 +35400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:22:20</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44117.64050925926</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36449,10 +35473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:21:43</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44117.64008101852</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36520,10 +35542,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:21:27</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44117.63989583333</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
@@ -36591,10 +35611,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:21:05</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44117.63964120371</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -36670,10 +35688,8 @@
           <t>3595666626</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:20:59</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44117.63957175926</v>
       </c>
       <c r="I501" t="n">
         <v>2</v>
@@ -36745,10 +35761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:20:30</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44117.63923611111</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36812,10 +35826,8 @@
           <t>3595666626</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:20:02</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44117.63891203704</v>
       </c>
       <c r="I503" t="n">
         <v>4</v>
@@ -36883,10 +35895,8 @@
           <t>3595666626</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:19:38</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44117.63863425926</v>
       </c>
       <c r="I504" t="n">
         <v>4</v>
@@ -36962,10 +35972,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:19:32</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44117.63856481481</v>
       </c>
       <c r="I505" t="n">
         <v>2</v>
@@ -37033,10 +36041,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:18:53</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44117.63811342593</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37104,10 +36110,8 @@
           <t>3595666626</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:18:35</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44117.63790509259</v>
       </c>
       <c r="I507" t="n">
         <v>40</v>
@@ -37179,10 +36183,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:18:13</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44117.63765046297</v>
       </c>
       <c r="I508" t="n">
         <v>1</v>
@@ -37258,10 +36260,8 @@
           <t>3595709294</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:18:12</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44117.63763888889</v>
       </c>
       <c r="I509" t="n">
         <v>1</v>
@@ -37329,10 +36329,8 @@
           <t>3595710174</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:17:41</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44117.63728009259</v>
       </c>
       <c r="I510" t="n">
         <v>3</v>
@@ -37404,10 +36402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:17:19</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44117.63702546297</v>
       </c>
       <c r="I511" t="n">
         <v>410</v>
@@ -37479,10 +36475,8 @@
           <t>3595699889</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:17:17</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44117.63700231481</v>
       </c>
       <c r="I512" t="n">
         <v>4</v>
@@ -37550,10 +36544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:16:47</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44117.6366550926</v>
       </c>
       <c r="I513" t="n">
         <v>113</v>
@@ -37621,10 +36613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:16:02</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44117.63613425926</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37692,10 +36682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:15:55</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44117.63605324074</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37767,10 +36755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:15:22</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44117.6356712963</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37834,10 +36820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:14:47</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44117.6352662037</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -37941,10 +36925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:14:15</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44117.63489583333</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -38016,10 +36998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:14:01</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44117.63473379629</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38087,10 +37067,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:13:45</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44117.63454861111</v>
       </c>
       <c r="I520" t="n">
         <v>1</v>
@@ -38158,10 +37136,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:12:58</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44117.63400462963</v>
       </c>
       <c r="I521" t="n">
         <v>2</v>
@@ -38237,10 +37213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:12:21</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44117.63357638889</v>
       </c>
       <c r="I522" t="n">
         <v>31</v>
@@ -38316,10 +37290,8 @@
           <t>3595705057</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:12:06</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44117.63340277778</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38387,10 +37359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:10:06</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44117.63201388889</v>
       </c>
       <c r="I524" t="n">
         <v>9</v>
@@ -38454,10 +37424,8 @@
           <t>3595693369</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:09:32</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44117.63162037037</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38529,10 +37497,8 @@
           <t>3595666516</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:08:41</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44117.63103009259</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38600,10 +37566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:07:37</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44117.63028935185</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38671,10 +37635,8 @@
           <t>3595682523</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:07:14</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44117.63002314815</v>
       </c>
       <c r="I528" t="n">
         <v>1</v>
@@ -38742,10 +37704,8 @@
           <t>3595682949</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:07:07</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44117.62994212963</v>
       </c>
       <c r="I529" t="n">
         <v>25</v>
@@ -38809,10 +37769,8 @@
           <t>3595682523</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:06:27</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44117.62947916667</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -38880,10 +37838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:06:17</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44117.62936342593</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
@@ -38951,10 +37907,8 @@
           <t>3595690772</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:05:50</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44117.62905092593</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39026,10 +37980,8 @@
           <t>3595681896</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:05:29</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44117.62880787037</v>
       </c>
       <c r="I533" t="n">
         <v>1</v>
@@ -39097,10 +38049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:04:27</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44117.62809027778</v>
       </c>
       <c r="I534" t="n">
         <v>58</v>
@@ -39176,10 +38126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:04:22</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44117.62803240741</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39279,10 +38227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:03:50</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44117.62766203703</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39346,10 +38292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:03:15</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44117.62725694444</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -39409,10 +38353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:03:10</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44117.62719907407</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39488,10 +38430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:02:44</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44117.62689814815</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39555,10 +38495,8 @@
           <t>3595669947</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:02:37</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44117.62681712963</v>
       </c>
       <c r="I540" t="n">
         <v>2</v>
@@ -39626,10 +38564,8 @@
           <t>3595678576</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:02:36</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44117.62680555556</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39697,10 +38633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:02:22</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44117.62664351852</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39764,10 +38698,8 @@
           <t>3595667309</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:02:12</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44117.62652777778</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39843,10 +38775,8 @@
           <t>3595669675</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:02:12</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44117.62652777778</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -39922,10 +38852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:01:34</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44117.62608796296</v>
       </c>
       <c r="I545" t="n">
         <v>2</v>
@@ -40001,10 +38929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:01:04</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44117.62574074074</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40080,10 +39006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:00:52</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44117.62560185185</v>
       </c>
       <c r="I547" t="n">
         <v>30</v>
@@ -40155,10 +39079,8 @@
           <t>3595668736</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:00:46</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44117.62553240741</v>
       </c>
       <c r="I548" t="n">
         <v>6</v>
@@ -40234,10 +39156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:00:32</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44117.62537037037</v>
       </c>
       <c r="I549" t="n">
         <v>2</v>
@@ -40305,10 +39225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-10-13 15:00:16</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44117.62518518518</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40384,10 +39302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:59:03</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44117.62434027778</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40459,10 +39375,8 @@
           <t>3595667309</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:58:39</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44117.6240625</v>
       </c>
       <c r="I552" t="n">
         <v>12</v>
@@ -40534,10 +39448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:58:19</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44117.62383101852</v>
       </c>
       <c r="I553" t="n">
         <v>3</v>
@@ -40609,10 +39521,8 @@
           <t>3595675628</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:58:07</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44117.62369212963</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40688,10 +39598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:57:50</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44117.62349537037</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40759,10 +39667,8 @@
           <t>3595666516</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:57:26</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44117.62321759259</v>
       </c>
       <c r="I556" t="n">
         <v>5</v>
@@ -40838,10 +39744,8 @@
           <t>3595664963</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:57:02</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44117.62293981481</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40909,10 +39813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:59</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44117.62290509259</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -40976,10 +39878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:57</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44117.62288194444</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41056,10 +39956,8 @@
           <t>3595666184</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:56</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44117.62287037037</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41127,10 +40025,8 @@
           <t>3595670607</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:49</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44117.62278935185</v>
       </c>
       <c r="I561" t="n">
         <v>168</v>
@@ -41202,10 +40098,8 @@
           <t>3595670592</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:47</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44117.62276620371</v>
       </c>
       <c r="I562" t="n">
         <v>78</v>
@@ -41269,10 +40163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:35</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44117.62262731481</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41348,10 +40240,8 @@
           <t>3595664575</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:28</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44117.6225462963</v>
       </c>
       <c r="I564" t="n">
         <v>3</v>
@@ -41427,10 +40317,8 @@
           <t>3595670346</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:25</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44117.62251157407</v>
       </c>
       <c r="I565" t="n">
         <v>3</v>
@@ -41498,10 +40386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:12</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44117.62236111111</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41573,10 +40459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:07</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44117.62230324074</v>
       </c>
       <c r="I567" t="n">
         <v>2</v>
@@ -41652,10 +40536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:03</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44117.62225694444</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41723,10 +40605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:56:01</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44117.6222337963</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41794,10 +40674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:55</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44117.62216435185</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41865,10 +40743,8 @@
           <t>3595665535</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:54</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44117.62215277777</v>
       </c>
       <c r="I571" t="n">
         <v>14</v>
@@ -41937,10 +40813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:53</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44117.6221412037</v>
       </c>
       <c r="I572" t="n">
         <v>2</v>
@@ -42012,10 +40886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:49</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44117.6220949074</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42079,10 +40951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:46</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44117.62206018518</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42150,10 +41020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:46</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44117.62206018518</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42229,10 +41097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:43</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44117.62202546297</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42300,10 +41166,8 @@
           <t>3595664110</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:42</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44117.62201388889</v>
       </c>
       <c r="I577" t="n">
         <v>3</v>
@@ -42379,10 +41243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:33</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44117.62190972222</v>
       </c>
       <c r="I578" t="n">
         <v>341</v>
@@ -42446,10 +41308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:33</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44117.62190972222</v>
       </c>
       <c r="I579" t="n">
         <v>2</v>
@@ -42513,10 +41373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:28</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44117.62185185185</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -42580,10 +41438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:27</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44117.62184027778</v>
       </c>
       <c r="I581" t="n">
         <v>1</v>
@@ -42651,10 +41507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:24</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44117.62180555556</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42722,10 +41576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:20</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44117.62175925926</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -42793,10 +41645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:15</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44117.62170138889</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -42872,10 +41722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:13</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44117.62167824074</v>
       </c>
       <c r="I585" t="n">
         <v>1</v>
@@ -42949,10 +41797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:13</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44117.62167824074</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43028,10 +41874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:10</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44117.62164351852</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43095,10 +41939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:05</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44117.62158564815</v>
       </c>
       <c r="I588" t="n">
         <v>8</v>
@@ -43170,10 +42012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:03</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44117.6215625</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43233,10 +42073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:03</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44117.6215625</v>
       </c>
       <c r="I590" t="n">
         <v>132</v>
@@ -43304,10 +42142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:02</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44117.62155092593</v>
       </c>
       <c r="I591" t="n">
         <v>48</v>
@@ -43375,10 +42211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:02</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44117.62155092593</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43442,10 +42276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:55:01</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44117.62153935185</v>
       </c>
       <c r="I593" t="n">
         <v>3</v>
@@ -43509,10 +42341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:54:59</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44117.6215162037</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43576,10 +42406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:54:55</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44117.6214699074</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43647,10 +42475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:54:53</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44117.62144675926</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -43723,10 +42549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:54:53</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44117.62144675926</v>
       </c>
       <c r="I597" t="n">
         <v>765</v>
@@ -43795,10 +42619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:54:46</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44117.62136574074</v>
       </c>
       <c r="I598" t="n">
         <v>1</v>
@@ -43866,10 +42688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:54:45</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44117.62135416667</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -43933,10 +42753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:54:44</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44117.6213425926</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44005,10 +42823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:54:42</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44117.62131944444</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
